--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\FCUL\1_2\TPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5087EFA-D29B-4760-A5D6-08C5B32F23BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAC34D-CA56-41A6-BB30-34B9C571E8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>20/03 - 3h</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -957,6 +963,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2178,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE45288-666C-4E7B-A5B4-76D0EE84D680}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,9 +2198,10 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>112</v>
       </c>
@@ -2205,14 +2213,21 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K1" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E5" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
@@ -2220,13 +2235,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="I8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="E9" s="24" t="s">
         <v>107</v>
@@ -2235,7 +2250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="E10" s="22" t="s">
         <v>108</v>
@@ -2244,7 +2259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="E11" s="22" t="s">
         <v>109</v>
@@ -2253,7 +2268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="E12" s="23" t="s">
         <v>110</v>
@@ -2262,7 +2277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>221</v>
       </c>
@@ -2270,12 +2285,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I15" s="6" t="s">
         <v>50</v>
       </c>

--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAC34D-CA56-41A6-BB30-34B9C571E8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF38A8C-61EA-44ED-ABE0-F502728E8C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>
   <sheets>
     <sheet name="listings.csv columns" sheetId="1" r:id="rId1"/>
-    <sheet name="Star schema - David" sheetId="2" r:id="rId2"/>
+    <sheet name="reviews.csv columns" sheetId="3" r:id="rId2"/>
+    <sheet name="Star schema - David" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -704,6 +705,36 @@
   </si>
   <si>
     <t>20/03 - 3h</t>
+  </si>
+  <si>
+    <t>listing_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>reviewer_id</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Reviewer ID</t>
+  </si>
+  <si>
+    <t>Review ID</t>
+  </si>
+  <si>
+    <t>Date of review</t>
+  </si>
+  <si>
+    <t>Name of reviewer</t>
+  </si>
+  <si>
+    <t>Review text</t>
   </si>
 </sst>
 </file>
@@ -960,10 +991,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1282,7 +1313,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,10 +2215,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598541CA-A596-4075-B00E-0AD8738E4DD7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE45288-666C-4E7B-A5B4-76D0EE84D680}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -2202,18 +2312,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>222</v>
       </c>
     </row>

--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF38A8C-61EA-44ED-ABE0-F502728E8C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141AB00-671D-4C80-BC8A-F4A1791E118E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>
   <sheets>
     <sheet name="listings.csv columns" sheetId="1" r:id="rId1"/>
     <sheet name="reviews.csv columns" sheetId="3" r:id="rId2"/>
-    <sheet name="Star schema - David" sheetId="2" r:id="rId3"/>
+    <sheet name="calendar.csv columns" sheetId="4" r:id="rId3"/>
+    <sheet name="Star schema - David" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2218,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598541CA-A596-4075-B00E-0AD8738E4DD7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,6 +2295,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA86F77-EB40-4E45-8262-9ED5A3897B9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE45288-666C-4E7B-A5B4-76D0EE84D680}">
   <dimension ref="A1:K32"/>
   <sheetViews>

--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141AB00-671D-4C80-BC8A-F4A1791E118E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B623150-FD52-4B63-A1BD-6AEFA61F9432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -736,6 +736,24 @@
   </si>
   <si>
     <t>Review text</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>adjusted_price</t>
+  </si>
+  <si>
+    <t>Calendar date</t>
+  </si>
+  <si>
+    <t>If listing is available at calendar date</t>
+  </si>
+  <si>
+    <t>Price of listing</t>
+  </si>
+  <si>
+    <t>Adjusted price of listing</t>
   </si>
 </sst>
 </file>
@@ -946,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -995,6 +1013,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2220,7 +2241,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,14 +2317,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA86F77-EB40-4E45-8262-9ED5A3897B9A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B623150-FD52-4B63-A1BD-6AEFA61F9432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC78DA-F44D-44D2-B917-127E9CDBE1FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>

--- a/data/PhaseI.xlsx
+++ b/data/PhaseI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\TPD-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC78DA-F44D-44D2-B917-127E9CDBE1FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB62C49-7C20-4B49-9D94-9C69613190CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0CCFEC57-B34E-4B9F-A253-CB2A25AE19AF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -579,12 +579,6 @@
     <t>Added cost per extra guest in listing price</t>
   </si>
   <si>
-    <t>Minimum number of nights in listing</t>
-  </si>
-  <si>
-    <t>Maximum number of nights in listing</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -754,6 +748,12 @@
   </si>
   <si>
     <t>Adjusted price of listing</t>
+  </si>
+  <si>
+    <t>Minimum number of nights to book listing</t>
+  </si>
+  <si>
+    <t>Maximum number of nights to book listing</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC11B94-65C4-4640-B553-E339901D3A95}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1366,7 @@
         <v>114</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>142</v>
@@ -1772,7 +1772,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2119,10 +2119,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2146,10 +2146,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2157,10 +2157,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2192,10 +2192,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>114</v>
@@ -2275,39 +2275,39 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2320,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>114</v>
@@ -2351,18 +2351,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,25 +2370,31 @@
         <v>60</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="B7" s="19" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>68</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2427,22 +2433,22 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="K1" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E5" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>106</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>48</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>111</v>
